--- a/自己搜集英国.xlsx
+++ b/自己搜集英国.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11940"/>
+    <workbookView windowWidth="28060" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,9 +493,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -516,10 +516,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,8 +570,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,17 +601,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,38 +610,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,23 +646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,13 +659,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -669,13 +669,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,169 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +860,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -878,35 +896,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,32 +937,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -960,157 +945,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,9 +1118,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1447,8 +1444,8 @@
   <sheetPr/>
   <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1507,22 +1504,22 @@
       <c r="C3" s="2">
         <v>31524</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1530,22 +1527,22 @@
       <c r="C4" s="2">
         <v>32012</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1553,22 +1550,22 @@
       <c r="C5" s="2">
         <v>32357</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1576,22 +1573,22 @@
       <c r="C6" s="2">
         <v>32344</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1599,22 +1596,22 @@
       <c r="C7" s="2">
         <v>31834</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1622,22 +1619,22 @@
       <c r="C8" s="2">
         <v>32077</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1645,22 +1642,22 @@
       <c r="C9" s="2">
         <v>32274</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1668,22 +1665,22 @@
       <c r="C10" s="2">
         <v>32087</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1691,22 +1688,22 @@
       <c r="C11" s="2">
         <v>31654</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1714,22 +1711,22 @@
       <c r="C12" s="2">
         <v>31077</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1737,22 +1734,22 @@
       <c r="C13" s="2">
         <v>32510</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1760,22 +1757,22 @@
       <c r="C14" s="2">
         <v>31657</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1783,22 +1780,22 @@
       <c r="C15" s="2">
         <v>32205</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1806,22 +1803,22 @@
       <c r="C16" s="2">
         <v>31879</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1829,22 +1826,22 @@
       <c r="C17" s="2">
         <v>32281</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1852,22 +1849,22 @@
       <c r="C18" s="2">
         <v>32422</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1875,22 +1872,22 @@
       <c r="C19" s="2">
         <v>31662</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1898,22 +1895,22 @@
       <c r="C20" s="2">
         <v>31389</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1921,22 +1918,22 @@
       <c r="C21" s="2">
         <v>31817</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1944,22 +1941,22 @@
       <c r="C22" s="2">
         <v>32487</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1967,22 +1964,22 @@
       <c r="C23" s="2">
         <v>31666</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1990,22 +1987,22 @@
       <c r="C24" s="2">
         <v>31675</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2013,22 +2010,22 @@
       <c r="C25" s="2">
         <v>32490</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2036,22 +2033,22 @@
       <c r="C26" s="2">
         <v>31669</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2059,22 +2056,22 @@
       <c r="C27" s="2">
         <v>32528</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2082,22 +2079,22 @@
       <c r="C28" s="2">
         <v>31548</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2105,22 +2102,22 @@
       <c r="C29" s="2">
         <v>31672</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2128,22 +2125,22 @@
       <c r="C30" s="2">
         <v>32105</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2151,22 +2148,22 @@
       <c r="C31" s="2">
         <v>31674</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2174,22 +2171,22 @@
       <c r="C32" s="2">
         <v>32357</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2197,22 +2194,22 @@
       <c r="C33" s="2">
         <v>31676</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2220,22 +2217,22 @@
       <c r="C34" s="2">
         <v>31830</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2243,22 +2240,22 @@
       <c r="C35" s="2">
         <v>31566</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2266,22 +2263,22 @@
       <c r="C36" s="2">
         <v>31679</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2289,22 +2286,22 @@
       <c r="C37" s="2">
         <v>32417</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2312,22 +2309,22 @@
       <c r="C38" s="2">
         <v>31469</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2335,22 +2332,22 @@
       <c r="C39" s="2">
         <v>31657</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2358,22 +2355,22 @@
       <c r="C40" s="2">
         <v>32245</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2381,22 +2378,22 @@
       <c r="C41" s="2">
         <v>31865</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="3" t="s">
         <v>156</v>
       </c>
     </row>
